--- a/Олимпиады/ВОШ2020/Школьный этап.xlsx
+++ b/Олимпиады/ВОШ2020/Школьный этап.xlsx
@@ -519,11 +519,15 @@
   <dimension ref="B1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="2" max="2" width="11.21875" customWidth="1"/>
+    <col min="3" max="3" width="23.109375" customWidth="1"/>
+    <col min="4" max="4" width="20" customWidth="1"/>
+    <col min="5" max="5" width="10.77734375" customWidth="1"/>
     <col min="6" max="6" width="12.5546875" customWidth="1"/>
     <col min="8" max="9" width="16.5546875" customWidth="1"/>
     <col min="10" max="10" width="24.77734375" customWidth="1"/>
